--- a/Testdata/TC_136.xlsx
+++ b/Testdata/TC_136.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8D8AAB+LCAAAAAAAAAPtm1tz28YVgP8KRk/JjCkAJGVL6hoZipQUtqIki7Rl5cUDAisJNQiwuEjim/0QX5Omqe3MJLHrZtI0mTRJnalbXyQn/yUjSvKT/0LP7uJKgjKg2h0rQ49G4p7L3vecD2sCvbPV0rkNbNmaaZweEUeFEQ4biqlqxtrpEddZzYknR96R0PSWgvVF2ZJb2AFjDrwMe3LL1k6PrDtOe5LnNzc3RzcLo6a1xucFQeTP1+bqyjpuyTnNsB3ZUPBI4KW+3GtEQmW1VcOOrMqOzDxPj1Tr1dEy1pQKyGqyIa9ha3TKtTUD2/a04WiOhm3iaWHZweVK7RwbmJQfPTkqIr5PHlpOuZquMruYJZN7dtAsbmgtLOUFcTwnTOSEQkMUJosnJwvjo4XixHu+Y2CI5mTbqWNrQ1OooO7IrTZ1FyaEgigUTxbGEZ9oBHWFEyChBV1dwhuajdUy1nU704zw3gKWFAdGnW0yBcRHfL2Kjt6FWUturzc0R8fZurFUm+JaxgmO/G3CX9gtxRz8GjstCn4Xw7olNGNaWIFpPVJP5/HmguXNdqM9B9rGumY5nYrcyVzXWRtbC20yd9lcJVQxDaekY8s524YtgFXYIaCQHMvFiB+gDJ0qmq3AZ81wsSqtyroddYop0bJpXbTbsoLn4XjzpI5NQzdlFfaho9mOpoSN9inQomW2oUZofMrU1Rmo1TNOUAQ1Vw2YYtLslGleDHuXpER0Ven6wpq2ZMc375Oj+rq5uWDonbrbtBVLa2K1MuVbJ+oQOaeed9m1HbMFvQhFiMkiElXlazW+A//gdPYqUQUrWkvWF3WYSlsqQF0xASq5jrmqOWVTd1uG7fesR4qWYVwNvBWMMyijBVhig0y9aVQN355NdqIq7rBkbgZt9ivoVETEJVvxF71f0WtcAZm/iP0aui5klDOaDskjuiIRaXxv1NcxdhI3BtMgEidnSDqSpjrzbqsJh6wJJ22DtmojPtQj2K2w46FfkgApJkd/GoIwSX+gH4EaTRvqYDtfiaC5SFuSmEd8jwjBmPQpXTYugnRZc9bnS/5YEjSIzcBA+34dgvPb1uUOFQezFJWhqqHoropZWKgaq3SLkr6xRR2oRn2iOTjpEpKNTqPThqBta5MOfDg9Aml80nYsAIURSTFdw7E6JH4g3jN9mY/tNg3agKyn9lm18B9c4JPOjGsoZVNN35rKZuesoTnpe2i6FguK6V3o7JH46NoVTCINDf2p/ZUsY7KtTOYtA7dMQ1PSzzZMMum9eoSB2P6pSu2B2flKba9DdmfJj5z11G4WwCWku0zNlGzbVDS6Wb3joUb8+QFHpoJXZVcHsHMg0a4FsbdXjEr2xV6bqAidtXQ/AkoEm23gZkVtjSqAEIQNRxWzRQQ84OpyHfFRe8JBCp421uZkY80F0gjiSq88iL8kSzYs2bDJcAKw6AnFyUbIj1MMeCQWvBZcuhFY8DJBi/geO9TArbZpyXoNJkab8badR00AJDXZWfdKkNt0rPiTzIeugVe8Z37HX2ZGkxQbBjnwXpjsEVIjMhZG6KFNKENklDU4lnpZ1rWmxaKqn8qTdLBgISL68ZcMLiMu+msAT2mQfX+HOwTdw4Inp1tW9BVsA5NAKtWXiuP5MWFsDMiGlBEd8ay54XBAwhhIkctxDXmL+w1XNVRtQ1NdWYePsPlgZGx6vBSUyTPqg2b8+E67UIJ+xiVxA+CMNQ3SR79hoAkdpBUsW3onYsiGOGcqYLd3++fu07t7t//Tff+r3P43f+ze+OLFzme7j7/dffqUSdkYmTVqyE0d0x41psbHhUIRNlggQmRWeUrGqqs4VLayQoE4KCPvcY8WytPV8uzcFA0kgdB3Z7mEJ0+SHdMNi3U2CtoQXUve3wLMRGr4gckrx7SR3CSRJ7sNHLeO6gc5srnY3/56f/v7gd7ehIWQJU5MjOfE/EsZDJ6RxT67gMHmYsGfGBdzwlgun48Y99igJRb5g3mqqhI8gU8I4ilBDIK4GuziJKNelVdTQ17je/yYqMy4KNgC0bKvpDu/gW0nULOzECl4e/TfNw/+eSdm5c2uJ4nXAp2j/EIa4/0CrXp+qcHVF84ulae5xnSd7JNQF7FjlR9i7LUeHKjYpjIMOOUnOMjqkMW4EXgUGuHMVQ7LyjrXgaMYOYixzZYkZQ0dscreXs5apttmKxJxCKUJlkE4SfRICDZUR+ezL+qEqgRz1tfuk4dJDt5AKiHJerciwb6kMhTTMFFE753aT3/afXyVBLcHH3cfX47V4LUT3ArAPofTFC0G2x5CnpdoeiRouU4n86JwIZJYPCF5glo0NcOxJbFIH568EgJXkdRG/6JqC3IdrZjOF8h7JOhd2Z7ecryDLc0jPi6AfrZlSLNm+NAZCFgMD+f1+b2/7H3+cO+TBwdXv+3e+Kb7wSf72/cPfviCnbq9Ow/2PvzBi/K9iYD2hTzKMvrj6PWIwpHTyJGkzf1y6RZnmA4HrMG5NCL9cunTSGWko5RKwpqB5YKOxLvQZxp1Jn5cpCtBH2J+gQvL/GWSwgqBhZfEzLamhI28lyNVkXNHFW9VGznXxpwJGPU2jCRuHDqn9fNcWEpdPCXkyVN1KCIXDnJTtiNTP6ubTcAIX0FvHnpMYl6HO4S2tL3ZuYWp0lxowjqxYKnYItuQfUA+S5KUUrX9kr/VIhLQAvEprk4ui/rM+lVBzZEwxnu3LqsllYS/5DuKmAUqu5bFiMjwbvjrbhso2L+hG6ynt5YR8J1nkBpF4bBcrcT1UI5oIRHG1URA9TQ0eSoWpqo2ueBhHDtPpiYsgi520wnT4V3iM9ICqsQWT+LOtGWZVmLwCTW+WQ0QGiIKH854YEPXlOG2Gq6VL/AD3qvB7uJEYSKO3ZZp21wFAJncsnIeCnJvzVYW306E7UPtD0HsM2kRu88wCbHPuIBxeDBldz9/1r3y/v7t+7tPv967tN29tPNi5xr08cXO9SFevzK8Jv8t9ebgtSgKL8drz2iI12nxOjhpIQ7XZOsE91vXwCc4oJwTHMHj7JD9P1U8GLXPZEbtRI9DUTsp+qSh7e+/zEDbzYG03RxM290PL+8+/flV0bY4mLbFC5F80k/bY/khbQ9p+1jRtjik7eNC2z3B542l7TGheCpG2zOl6iTXcdTJ6P20f8MeE5ZN8p0GmQFdP4YfsaJD+LyWEs977ZLovGYazvpANoe+v9j5rPvkYffavYOr/9rdvuFdgD+71X30VffOlb1rj0Cyf/O7/X/c7P7p2u6zu/t/+2mI7a8G2+nXmVJ8M4GRePH/cCs+XkxxK86MhtieFtv7j2BKLD/UcTB21zJjd6LHodjd37UU0L1399rxuuLOD4bu/IVIWkm44s4P77iH1H28qDs/pO7jQt090ecNpm5y+xCh7uVFgOVFS4Mw1uFKFkQTHQMkz5gm8PPMuUnuHF6b5GYtjA1uEct2EnBnr+MQ1l4+mRK2+wyTaHsZ44uDv25y/Un3o493tx/t/XVn74OrEPZe7FyDwbzYuU6pe/vg75cBubu3LkPx+Zf32YeZc/Dr4PZ3Bx/dJeJ7fz748coQwF8ZgI/lRCENgJNL85xYfN335oVCintzZjQE8LQAzk4l18RwXg2SsWWHq8PesFT5CFSevbbBqL6cGdUTPQ5F9b6YlILUn1/6MSWp97yS0w/sPQYDuH1wNdmpvTCY2gsXImkpgdpPDe/Kh9R+vKi98Cugdq/tXz2294Sf14Lt3gf2NoI3QrOCdexke/mSD71r5saRfWHxs7pW7QVd9SYz29fhg2kJK4i+gUo2ymt6AZXtwZJlAXORd9UyvzHqv2OxJBtrGTvJRkgdycsK0DrpDdlDmmU750mi8j4xyUogWWHwel4qMkI9z8orUiHvvaAMFny0ej7WT/9MO+z9YFOf01paxlcYBP/cxyuByWy3Gd5Vs+0gknPm8RbAZ6QGiJbN30M+Ye/8ZKmNbWQIsoE/ec/O1tbWnawdO9WUsYqbQk5p4nyuqArjuQmMCzlRhN+ykicbi7yl51UOEUXDmxkb4f0FC9/bl/4LyS8ztPA/AAA=</t>
+          <t>l0EAAB+LCAAAAAAAAAPtnNtzG9UZwP+VHT/BTOS9yBfJPVlGlmxXrWUbS4kTXjKr3WN769WuuhfbekseIIFAaUpgBkiaMpTCUKB0SgvEBv4XxrLNU/6FfuecvUorZ9eETtJRJpc93+Xcz/f99ow36IX9jsHtYtvRLfPihDgpTHDYVC1NN7cuTnjuZkGcmXhBRgv7KjbWFFvpYBeMOfAynbl9R784se263Tme39vbm9wrTlr2Fi8JgshfaSw31W3cUQq66biKqeKJ0Et7vNeEjKpap4FdRVNchXlenKg365NVrKs1kDUUU9nC9uS85+gmdpwF09VdHTvE08aKi6u1xmU2MFmanJkUET8kjyznPd3QmF3Cksl9O2gWt/QOliVBEgpCqSAJLaE8J0lzYmlSKk2/FDiGhmhZcdwmtnd1lQqartLpUnehBH/KkiSWEJ9qBHVFEyCjVUNbx7u6g7UqNgwn14zw/gJWVBdGnW8yBcTHfP2Kzt+FJVvpbrd018B53RctG6swUedqewXvrdr+/LW6y6Btbeu226spvdx1XXKwvdols5HPVUY1y3QrBrbdS11YVKzBmoNCdm0PI36EMnKq6Y4Kz7rpYU3eVAwn7pRQog3L3nG6iopX4MDypI4907AUDXaWqzuurkaNDinQmm11oUZofN4ytEWo1TdOUYQ1102YYtLsvGXtRL1LUyK6B+hugDXtKG5gPiRHzW1rb9U0ek2v7ai23sZabT6wTtUhcvJ876rnuFYHehGJEJPFJJrGNxp8D37BeRtUohpW9Y5irBkwlY5chLoSAlTxXGtTd6uW4XVMJ+jZgBRtwLhaeD8cZ1hGq7DEJpl6y6ybgT2b7FRV0mHd2gvbHFbQqYiJK44aLPqwYtC4BrJgEYc1dF3IKBd1A9JBfEVi0uTeaG5j7KZuDKZBJPItkgQjz/dWvE4bDlkbTtoubdVBfKRHsFthx0O/ZAGSRoH+bgnCHP0N/QjVaMHURtsFSgTNxdqSRQnxAyIEYzLmDcXcAemG7m6vVIKxpGgQm4GR9sM6BOe3ayg9Kg5nKS5DdVM1PA2zsFA3N+kWJX1jizpSjYZEy3DSZaSYvVavC2HY0edceLg4AYl5znFtSP0Tsmp5pmv3SPxAvG/6OB/Ha5u0AcXI7LNp4997QBy9Rc9Uq5aWvTWNzc4lU3ez99DybBYUs7vQ2SPx0XNqmEQaGvoz+6t5xuTYucw7Ju5Ypq5mn22YZNJ77RwDcYJTldkDs/OV2d6A7M6SHznrmd1swEVId7maqTiOpep0s/rHQ4v58yOOTA1vKp4BqOZCot0KY++gGFWcnUGbuAhdso0gAsoEhB0gYVXrTKqAEIT2JlWrQwQ8AOhGE/Fxe8JBKl4wt5YVc8sD0gjjyqA8jL8kS7ZsxXTIcEKwGAjF6UYoiFMMeGQWvFY9uhFY8LJAi/gBO9TCna5lK0YDJkZf9LedT00AJA3F3fZLkNsMrAaTzEeuoVeyZ0HHH2dGkxQbBjnwfpgcEFIjMhbG3JFNJENklA04lkZVMfS2zaJqkMrTdLBgESIG8ZcMLicuBmsA712QfX+LewTGo4Ivp1tWDBRsA5NAKjfXp0rStDA9DWRDyoiOeMnadTkgYQykyBW4lrLP/Yqrm5q+q2ueYsAjbD4YGZsePwXl8oz7oMUgvtMuVKCfSUnSADhjS4f0MWwYaiIH+SpWbKMXM2RDXLZUsDu++0P/4b3ju//pv/xR4eSTP/Rf++DR4XtH33x69PAhk7IxMmvUUtoGpj1qzZdKQnEKNlgoQmRWeUrGmqe6VHb1KgXisIz8FzhaqC7Uq0vL8zSQhMLAneUSnrwb9iwvKjbZKGhDdC35YAswE7kVBCa/nNDGcpNM3tV2cdI6rh/lyObi5ODjk4PPR3r7ExZBllgulwqi9FgGkwRRHLILGWw5EfyJ8VRBmC5IUsx4wAats8gfzlNdk4uiUBbEWUEMg7gW7uI0o0GVX1NL2eIH/Jioyrgo3ALxcqCkO7+FHTdUs7MQK/h79N+3T//xdsLKn11fkqwFOkf5hTTGBwVa9cp6i2uuXlqvLnCthSbZJ5EuZscqP8PYbz08UIlNZZpwyi9wkNUhi3ET8Co0wVmbHFbUba4HRzF2EBObLU3KGjpnlYO9XLItr8tWJOYQSVMsw3CS6pESbKiOzudQ1IlUKeasr/1vv0pz8AdSi0hWXm/Mcx0z3JdUhhIaJorp/VP77vdH39wkwe3LO/1vbiRq8NsJbwVgn8NpihfDbQ8hz080AxK00aSTuSNciyUWX0jeoNYs3XQdWZyiL09+CYGrSGqj/6J6B3IdrZjOF8gHJOjXirOw7/oHW15BfFIA/ewqkGat6KUzFLAYHs3rT/f/fPz+V8fvfHl689P+a5/0X3/n5ODB6RcfsFN3/PaXx2984Uf5wURA+0JeZRn9cfR6ROXIaeRI0uZ+vP4WZ1ouB6zBeTQi/Xj93VhlpKOUSqKageXCjiS7MGQadyZ+XKwrYR8SfqELy/xVksKKoYWfxKyurkaNvFQgVZFzRxXP1VsFz8GcBRj1PIwkaRw5Z/XzXVhKXZsVJPJWHYnIhYPSVpzY1C8ZVhswIlDQm4cBk4TX2Q6RLW1vaXl1vrIcmbBOrNoatsk2ZA+o7gQ0GWyvmAS0QHmqZ5ALoiGzYRUKnmKhi/dvWjYrGgl56fcSCQtU9WybUZDp39M3vS6Qb3ArN1pPbypjsLvCwDSOv1G5XkvqoRzTQvJLqomA6mk48lUsNNUdcqnD2HWFTE1UBF3idhOmw7+KZ3QFJIltnsSaBdu27NSAE2kCswZgM0QRPprx0IYnTTLE1qK1CgRBkHsyqD1VLpaTqG1bjsPVAIrJzSrn4x/33FJt7flUwD7T/gysfjErVg8ZpmH1ix6gGx5N1v33v+u/8vLJ3QdHDz8+vn7Qv3746PAW9PHR4atjpH5iSF0uCMWnB6lFUXg8UvtGY6TOitThSYsQuKHYF7jfeCa+wAHZXOAIEucH659V8Wi8fjE3Xqd6nInXadEnC2F//mEOwm6PJOz2aMLuv3Hj6OEPT4qwxdGELV6L5ZNhwp6WxoQ9JuxnirDFMWE/zYQ9EHCeWsKeFqZmE4S9WKnPcT1Xm4vfQwc36Qlh1SI/u6AwiBtG73NWdAaTNzIi+aBdGpE3LNPdHsnj0PdHh+/1v/2qf+v+6c1/HR285l90f/dW/+uP+m+/cnzra5Cc3P7s5O+3+3+8dfTdvZO/fj9G9SeD6pIgTGX5CQRG31P/g9vv0lSG229mNEb1rKg+fAQzoviZjqNRu5EbtVM9zkTt4a5lAO3je7eeratsaTRoS9diaSXlKlsa32WPSfvZIm1pTNpPM2kPRJynmLTJLUOMtDfWAJDXbB1CV4+r2BBBDAxgvGhZwMyLl+e4y3hrjluyMTa5Naw4aZCdv44z+HpjJiNgDxmmEfYGxjujf5Tk1W/7b945Ovj6+C+Hx6/fhFD36PAWDObR4auUtA9O/3YDMLv/1g0o/vThA/aweBn+Or372emb94j4/p9O//nKGLqfGHRPF0QhC3STy/GCOPVL348Xixnux5nRGLqzQjc7lVwbw3k1SZZWXK4Je8PWlHOQeP7aRuP5Rm48T/U4E8+HYlKWa/A7n2Skc/reSs7RRZHm6SFIHzAYweqjq8lP6sXRpF68FktLKaQ+O74TH5P6s0XqxWeU1P22/+9RfSDk/CKo7j+wrwv8EVo1bGA39+eRgXfD2j23Lyx+Xte6s2po/mTm+/H2cFqiCuLfiJKNkrczFdsGdCKfk+X+qHNZN3fq+UYvz+LizEypXBbV2eJ0sdTWZtqzkjQzXZrRsKRtAjzSSsnXDqSKDvA1+VYgXyMAjEn36LuOdcXcylkbm2DqSL59gJmiB9KP7GEZLeq2414hqdJ/YpKroeQqw+cr8hRj5CusfFUuSv4HzWDBx1vjE90OIozLvie2jGW9o+f8QEIIolCyEtgH3S4DzLwrCllvBe8D/sZqgHjd/h1kNPZFUZ7a2LGCMB/6B3U1vXbu6vjAeQ30ZGedz3tBAzQ7vzf9Olc3fkYHKHudt4q66ehb227edZXK5SKewVJB2lTVwhQUCpCP2wVN2SwDt24WNRLkw8ohPeh4L2cjJKnojqcY+f34gf9eQf4vtkRMO5dBAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -643,7 +643,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.2376470584994642</v>
+        <v>0.2376470584994645</v>
       </c>
       <c r="C20" s="2">
-        <v>0.7870384307995101</v>
+        <v>0.7870384307995103</v>
       </c>
       <c r="D20" s="2">
         <v>1.592444231343219</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.209218629985372</v>
+        <v>-1.209218629985371</v>
       </c>
       <c r="C21" s="2">
         <v>-0.02576425273384864</v>
@@ -4357,4 +4357,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>329</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>329</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Gross Domestic Product (GDP)</Name>
+          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
+          <SeriesId>310911001</SeriesId>
+          <Code>SR4824939</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>329</EndRow>
+          <EndCol>4</EndCol>
+          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
+          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
+          <SeriesId>310908401</SeriesId>
+          <Code>SR4825047</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>5</InitCol>
+          <EndRow>329</EndRow>
+          <EndCol>5</EndCol>
+          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
+          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
+          <SeriesId>310913301</SeriesId>
+          <Code>SR4825052</Code>
+          <Order>3</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{807FCE08-CAB8-455F-B7EE-602E481AABE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_136.xlsx
+++ b/Testdata/TC_136.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>l0EAAB+LCAAAAAAAAAPtnNtzG9UZwP+VHT/BTOS9yBfJPVlGlmxXrWUbS4kTXjKr3WN769WuuhfbekseIIFAaUpgBkiaMpTCUKB0SgvEBv4XxrLNU/6FfuecvUorZ9eETtJRJpc93+Xcz/f99ow36IX9jsHtYtvRLfPihDgpTHDYVC1NN7cuTnjuZkGcmXhBRgv7KjbWFFvpYBeMOfAynbl9R784se263Tme39vbm9wrTlr2Fi8JgshfaSw31W3cUQq66biKqeKJ0Et7vNeEjKpap4FdRVNchXlenKg365NVrKs1kDUUU9nC9uS85+gmdpwF09VdHTvE08aKi6u1xmU2MFmanJkUET8kjyznPd3QmF3Cksl9O2gWt/QOliVBEgpCqSAJLaE8J0lzYmlSKk2/FDiGhmhZcdwmtnd1lQqartLpUnehBH/KkiSWEJ9qBHVFEyCjVUNbx7u6g7UqNgwn14zw/gJWVBdGnW8yBcTHfP2Kzt+FJVvpbrd018B53RctG6swUedqewXvrdr+/LW6y6Btbeu226spvdx1XXKwvdols5HPVUY1y3QrBrbdS11YVKzBmoNCdm0PI36EMnKq6Y4Kz7rpYU3eVAwn7pRQog3L3nG6iopX4MDypI4907AUDXaWqzuurkaNDinQmm11oUZofN4ytEWo1TdOUYQ1102YYtLsvGXtRL1LUyK6B+hugDXtKG5gPiRHzW1rb9U0ek2v7ai23sZabT6wTtUhcvJ876rnuFYHehGJEJPFJJrGNxp8D37BeRtUohpW9Y5irBkwlY5chLoSAlTxXGtTd6uW4XVMJ+jZgBRtwLhaeD8cZ1hGq7DEJpl6y6ybgT2b7FRV0mHd2gvbHFbQqYiJK44aLPqwYtC4BrJgEYc1dF3IKBd1A9JBfEVi0uTeaG5j7KZuDKZBJPItkgQjz/dWvE4bDlkbTtoubdVBfKRHsFthx0O/ZAGSRoH+bgnCHP0N/QjVaMHURtsFSgTNxdqSRQnxAyIEYzLmDcXcAemG7m6vVIKxpGgQm4GR9sM6BOe3ayg9Kg5nKS5DdVM1PA2zsFA3N+kWJX1jizpSjYZEy3DSZaSYvVavC2HY0edceLg4AYl5znFtSP0Tsmp5pmv3SPxAvG/6OB/Ha5u0AcXI7LNp4997QBy9Rc9Uq5aWvTWNzc4lU3ez99DybBYUs7vQ2SPx0XNqmEQaGvoz+6t5xuTYucw7Ju5Ypq5mn22YZNJ77RwDcYJTldkDs/OV2d6A7M6SHznrmd1swEVId7maqTiOpep0s/rHQ4v58yOOTA1vKp4BqOZCot0KY++gGFWcnUGbuAhdso0gAsoEhB0gYVXrTKqAEIT2JlWrQwQ8AOhGE/Fxe8JBKl4wt5YVc8sD0gjjyqA8jL8kS7ZsxXTIcEKwGAjF6UYoiFMMeGQWvFY9uhFY8LJAi/gBO9TCna5lK0YDJkZf9LedT00AJA3F3fZLkNsMrAaTzEeuoVeyZ0HHH2dGkxQbBjnwfpgcEFIjMhbG3JFNJENklA04lkZVMfS2zaJqkMrTdLBgESIG8ZcMLicuBmsA712QfX+LewTGo4Ivp1tWDBRsA5NAKjfXp0rStDA9DWRDyoiOeMnadTkgYQykyBW4lrLP/Yqrm5q+q2ueYsAjbD4YGZsePwXl8oz7oMUgvtMuVKCfSUnSADhjS4f0MWwYaiIH+SpWbKMXM2RDXLZUsDu++0P/4b3ju//pv/xR4eSTP/Rf++DR4XtH33x69PAhk7IxMmvUUtoGpj1qzZdKQnEKNlgoQmRWeUrGmqe6VHb1KgXisIz8FzhaqC7Uq0vL8zSQhMLAneUSnrwb9iwvKjbZKGhDdC35YAswE7kVBCa/nNDGcpNM3tV2cdI6rh/lyObi5ODjk4PPR3r7ExZBllgulwqi9FgGkwRRHLILGWw5EfyJ8VRBmC5IUsx4wAats8gfzlNdk4uiUBbEWUEMg7gW7uI0o0GVX1NL2eIH/Jioyrgo3ALxcqCkO7+FHTdUs7MQK/h79N+3T//xdsLKn11fkqwFOkf5hTTGBwVa9cp6i2uuXlqvLnCthSbZJ5EuZscqP8PYbz08UIlNZZpwyi9wkNUhi3ET8Co0wVmbHFbUba4HRzF2EBObLU3KGjpnlYO9XLItr8tWJOYQSVMsw3CS6pESbKiOzudQ1IlUKeasr/1vv0pz8AdSi0hWXm/Mcx0z3JdUhhIaJorp/VP77vdH39wkwe3LO/1vbiRq8NsJbwVgn8NpihfDbQ8hz080AxK00aSTuSNciyUWX0jeoNYs3XQdWZyiL09+CYGrSGqj/6J6B3IdrZjOF8gHJOjXirOw7/oHW15BfFIA/ewqkGat6KUzFLAYHs3rT/f/fPz+V8fvfHl689P+a5/0X3/n5ODB6RcfsFN3/PaXx2984Uf5wURA+0JeZRn9cfR6ROXIaeRI0uZ+vP4WZ1ouB6zBeTQi/Xj93VhlpKOUSqKageXCjiS7MGQadyZ+XKwrYR8SfqELy/xVksKKoYWfxKyurkaNvFQgVZFzRxXP1VsFz8GcBRj1PIwkaRw5Z/XzXVhKXZsVJPJWHYnIhYPSVpzY1C8ZVhswIlDQm4cBk4TX2Q6RLW1vaXl1vrIcmbBOrNoatsk2ZA+o7gQ0GWyvmAS0QHmqZ5ALoiGzYRUKnmKhi/dvWjYrGgl56fcSCQtU9WybUZDp39M3vS6Qb3ArN1pPbypjsLvCwDSOv1G5XkvqoRzTQvJLqomA6mk48lUsNNUdcqnD2HWFTE1UBF3idhOmw7+KZ3QFJIltnsSaBdu27NSAE2kCswZgM0QRPprx0IYnTTLE1qK1CgRBkHsyqD1VLpaTqG1bjsPVAIrJzSrn4x/33FJt7flUwD7T/gysfjErVg8ZpmH1ix6gGx5N1v33v+u/8vLJ3QdHDz8+vn7Qv3746PAW9PHR4atjpH5iSF0uCMWnB6lFUXg8UvtGY6TOitThSYsQuKHYF7jfeCa+wAHZXOAIEucH659V8Wi8fjE3Xqd6nInXadEnC2F//mEOwm6PJOz2aMLuv3Hj6OEPT4qwxdGELV6L5ZNhwp6WxoQ9JuxnirDFMWE/zYQ9EHCeWsKeFqZmE4S9WKnPcT1Xm4vfQwc36Qlh1SI/u6AwiBtG73NWdAaTNzIi+aBdGpE3LNPdHsnj0PdHh+/1v/2qf+v+6c1/HR285l90f/dW/+uP+m+/cnzra5Cc3P7s5O+3+3+8dfTdvZO/fj9G9SeD6pIgTGX5CQRG31P/g9vv0lSG229mNEb1rKg+fAQzoviZjqNRu5EbtVM9zkTt4a5lAO3je7eeratsaTRoS9diaSXlKlsa32WPSfvZIm1pTNpPM2kPRJynmLTJLUOMtDfWAJDXbB1CV4+r2BBBDAxgvGhZwMyLl+e4y3hrjluyMTa5Naw4aZCdv44z+HpjJiNgDxmmEfYGxjujf5Tk1W/7b945Ovj6+C+Hx6/fhFD36PAWDObR4auUtA9O/3YDMLv/1g0o/vThA/aweBn+Or372emb94j4/p9O//nKGLqfGHRPF0QhC3STy/GCOPVL348Xixnux5nRGLqzQjc7lVwbw3k1SZZWXK4Je8PWlHOQeP7aRuP5Rm48T/U4E8+HYlKWa/A7n2Skc/reSs7RRZHm6SFIHzAYweqjq8lP6sXRpF68FktLKaQ+O74TH5P6s0XqxWeU1P22/+9RfSDk/CKo7j+wrwv8EVo1bGA39+eRgXfD2j23Lyx+Xte6s2po/mTm+/H2cFqiCuLfiJKNkrczFdsGdCKfk+X+qHNZN3fq+UYvz+LizEypXBbV2eJ0sdTWZtqzkjQzXZrRsKRtAjzSSsnXDqSKDvA1+VYgXyMAjEn36LuOdcXcylkbm2DqSL59gJmiB9KP7GEZLeq2414hqdJ/YpKroeQqw+cr8hRj5CusfFUuSv4HzWDBx1vjE90OIozLvie2jGW9o+f8QEIIolCyEtgH3S4DzLwrCllvBe8D/sZqgHjd/h1kNPZFUZ7a2LGCMB/6B3U1vXbu6vjAeQ30ZGedz3tBAzQ7vzf9Olc3fkYHKHudt4q66ehb227edZXK5SKewVJB2lTVwhQUCpCP2wVN2SwDt24WNRLkw8ohPeh4L2cjJKnojqcY+f34gf9eQf4vtkRMO5dBAAA=</t>
+          <t>8D8AAB+LCAAAAAAAAAPtm1tz28YVgP8KRk/JjCkAJGVL6hoZipQUtqIki7Rl5cUDAisJNQiwuEjim/0QX5Omqe3MJLHrZtI0mTRJnalbXyQn/yUjSvKT/0LP7uJKgjKg2h0rQ49G4p7L3vecD2sCvbPV0rkNbNmaaZweEUeFEQ4biqlqxtrpEddZzYknR96R0PSWgvVF2ZJb2AFjDrwMe3LL1k6PrDtOe5LnNzc3RzcLo6a1xucFQeTP1+bqyjpuyTnNsB3ZUPBI4KW+3GtEQmW1VcOOrMqOzDxPj1Tr1dEy1pQKyGqyIa9ha3TKtTUD2/a04WiOhm3iaWHZweVK7RwbmJQfPTkqIr5PHlpOuZquMruYJZN7dtAsbmgtLOUFcTwnTOSEQkMUJosnJwvjo4XixHu+Y2CI5mTbqWNrQ1OooO7IrTZ1FyaEgigUTxbGEZ9oBHWFEyChBV1dwhuajdUy1nU704zw3gKWFAdGnW0yBcRHfL2Kjt6FWUturzc0R8fZurFUm+JaxgmO/G3CX9gtxRz8GjstCn4Xw7olNGNaWIFpPVJP5/HmguXNdqM9B9rGumY5nYrcyVzXWRtbC20yd9lcJVQxDaekY8s524YtgFXYIaCQHMvFiB+gDJ0qmq3AZ81wsSqtyroddYop0bJpXbTbsoLn4XjzpI5NQzdlFfaho9mOpoSN9inQomW2oUZofMrU1Rmo1TNOUAQ1Vw2YYtLslGleDHuXpER0Ven6wpq2ZMc375Oj+rq5uWDonbrbtBVLa2K1MuVbJ+oQOaeed9m1HbMFvQhFiMkiElXlazW+A//gdPYqUQUrWkvWF3WYSlsqQF0xASq5jrmqOWVTd1uG7fesR4qWYVwNvBWMMyijBVhig0y9aVQN355NdqIq7rBkbgZt9ivoVETEJVvxF71f0WtcAZm/iP0aui5klDOaDskjuiIRaXxv1NcxdhI3BtMgEidnSDqSpjrzbqsJh6wJJ22DtmojPtQj2K2w46FfkgApJkd/GoIwSX+gH4EaTRvqYDtfiaC5SFuSmEd8jwjBmPQpXTYugnRZc9bnS/5YEjSIzcBA+34dgvPb1uUOFQezFJWhqqHoropZWKgaq3SLkr6xRR2oRn2iOTjpEpKNTqPThqBta5MOfDg9Aml80nYsAIURSTFdw7E6JH4g3jN9mY/tNg3agKyn9lm18B9c4JPOjGsoZVNN35rKZuesoTnpe2i6FguK6V3o7JH46NoVTCINDf2p/ZUsY7KtTOYtA7dMQ1PSzzZMMum9eoSB2P6pSu2B2flKba9DdmfJj5z11G4WwCWku0zNlGzbVDS6Wb3joUb8+QFHpoJXZVcHsHMg0a4FsbdXjEr2xV6bqAidtXQ/AkoEm23gZkVtjSqAEIQNRxWzRQQ84OpyHfFRe8JBCp421uZkY80F0gjiSq88iL8kSzYs2bDJcAKw6AnFyUbIj1MMeCQWvBZcuhFY8DJBi/geO9TArbZpyXoNJkab8badR00AJDXZWfdKkNt0rPiTzIeugVe8Z37HX2ZGkxQbBjnwXpjsEVIjMhZG6KFNKENklDU4lnpZ1rWmxaKqn8qTdLBgISL68ZcMLiMu+msAT2mQfX+HOwTdw4Inp1tW9BVsA5NAKtWXiuP5MWFsDMiGlBEd8ay54XBAwhhIkctxDXmL+w1XNVRtQ1NdWYePsPlgZGx6vBSUyTPqg2b8+E67UIJ+xiVxA+CMNQ3SR79hoAkdpBUsW3onYsiGOGcqYLd3++fu07t7t//Tff+r3P43f+ze+OLFzme7j7/dffqUSdkYmTVqyE0d0x41psbHhUIRNlggQmRWeUrGqqs4VLayQoE4KCPvcY8WytPV8uzcFA0kgdB3Z7mEJ0+SHdMNi3U2CtoQXUve3wLMRGr4gckrx7SR3CSRJ7sNHLeO6gc5srnY3/56f/v7gd7ehIWQJU5MjOfE/EsZDJ6RxT67gMHmYsGfGBdzwlgun48Y99igJRb5g3mqqhI8gU8I4ilBDIK4GuziJKNelVdTQ17je/yYqMy4KNgC0bKvpDu/gW0nULOzECl4e/TfNw/+eSdm5c2uJ4nXAp2j/EIa4/0CrXp+qcHVF84ulae5xnSd7JNQF7FjlR9i7LUeHKjYpjIMOOUnOMjqkMW4EXgUGuHMVQ7LyjrXgaMYOYixzZYkZQ0dscreXs5apttmKxJxCKUJlkE4SfRICDZUR+ezL+qEqgRz1tfuk4dJDt5AKiHJerciwb6kMhTTMFFE753aT3/afXyVBLcHH3cfX47V4LUT3ArAPofTFC0G2x5CnpdoeiRouU4n86JwIZJYPCF5glo0NcOxJbFIH568EgJXkdRG/6JqC3IdrZjOF8h7JOhd2Z7ecryDLc0jPi6AfrZlSLNm+NAZCFgMD+f1+b2/7H3+cO+TBwdXv+3e+Kb7wSf72/cPfviCnbq9Ow/2PvzBi/K9iYD2hTzKMvrj6PWIwpHTyJGkzf1y6RZnmA4HrMG5NCL9cunTSGWko5RKwpqB5YKOxLvQZxp1Jn5cpCtBH2J+gQvL/GWSwgqBhZfEzLamhI28lyNVkXNHFW9VGznXxpwJGPU2jCRuHDqn9fNcWEpdPCXkyVN1KCIXDnJTtiNTP6ubTcAIX0FvHnpMYl6HO4S2tL3ZuYWp0lxowjqxYKnYItuQfUA+S5KUUrX9kr/VIhLQAvEprk4ui/rM+lVBzZEwxnu3LqsllYS/5DuKmAUqu5bFiMjwbvjrbhso2L+hG6ynt5YR8J1nkBpF4bBcrcT1UI5oIRHG1URA9TQ0eSoWpqo2ueBhHDtPpiYsgi520wnT4V3iM9ICqsQWT+LOtGWZVmLwCTW+WQ0QGiIKH854YEPXlOG2Gq6VL/AD3qvB7uJEYSKO3ZZp21wFAJncsnIeCnJvzVYW306E7UPtD0HsM2kRu88wCbHPuIBxeDBldz9/1r3y/v7t+7tPv967tN29tPNi5xr08cXO9SFevzK8Jv8t9ebgtSgKL8drz2iI12nxOjhpIQ7XZOsE91vXwCc4oJwTHMHj7JD9P1U8GLXPZEbtRI9DUTsp+qSh7e+/zEDbzYG03RxM290PL+8+/flV0bY4mLbFC5F80k/bY/khbQ9p+1jRtjik7eNC2z3B542l7TGheCpG2zOl6iTXcdTJ6P20f8MeE5ZN8p0GmQFdP4YfsaJD+LyWEs977ZLovGYazvpANoe+v9j5rPvkYffavYOr/9rdvuFdgD+71X30VffOlb1rj0Cyf/O7/X/c7P7p2u6zu/t/+2mI7a8G2+nXmVJ8M4GRePH/cCs+XkxxK86MhtieFtv7j2BKLD/UcTB21zJjd6LHodjd37UU0L1399rxuuLOD4bu/IVIWkm44s4P77iH1H28qDs/pO7jQt090ecNpm5y+xCh7uVFgOVFS4Mw1uFKFkQTHQMkz5gm8PPMuUnuHF6b5GYtjA1uEct2EnBnr+MQ1l4+mRK2+wyTaHsZ44uDv25y/Un3o493tx/t/XVn74OrEPZe7FyDwbzYuU6pe/vg75cBubu3LkPx+Zf32YeZc/Dr4PZ3Bx/dJeJ7fz748coQwF8ZgI/lRCENgJNL85xYfN335oVCintzZjQE8LQAzk4l18RwXg2SsWWHq8PesFT5CFSevbbBqL6cGdUTPQ5F9b6YlILUn1/6MSWp97yS0w/sPQYDuH1wNdmpvTCY2gsXImkpgdpPDe/Kh9R+vKi98Cugdq/tXz2294Sf14Lt3gf2NoI3QrOCdexke/mSD71r5saRfWHxs7pW7QVd9SYz29fhg2kJK4i+gUo2ymt6AZXtwZJlAXORd9UyvzHqv2OxJBtrGTvJRkgdycsK0DrpDdlDmmU750mi8j4xyUogWWHwel4qMkI9z8orUiHvvaAMFny0ej7WT/9MO+z9YFOf01paxlcYBP/cxyuByWy3Gd5Vs+0gknPm8RbAZ6QGiJbN30M+Ye/8ZKmNbWQIsoE/ec/O1tbWnawdO9WUsYqbQk5p4nyuqArjuQmMCzlRhN+ykicbi7yl51UOEUXDmxkb4f0FC9/bl/4LyS8ztPA/AAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -643,7 +643,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.2376470584994645</v>
+        <v>0.2376470584994642</v>
       </c>
       <c r="C20" s="2">
-        <v>0.7870384307995103</v>
+        <v>0.7870384307995101</v>
       </c>
       <c r="D20" s="2">
         <v>1.592444231343219</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.209218629985371</v>
+        <v>-1.209218629985372</v>
       </c>
       <c r="C21" s="2">
         <v>-0.02576425273384864</v>
@@ -4357,70 +4357,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>329</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>329</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Gross Domestic Product (GDP)</Name>
-          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
-          <SeriesId>310911001</SeriesId>
-          <Code>SR4824939</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>329</EndRow>
-          <EndCol>4</EndCol>
-          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
-          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
-          <SeriesId>310908401</SeriesId>
-          <Code>SR4825047</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>5</InitCol>
-          <EndRow>329</EndRow>
-          <EndCol>5</EndCol>
-          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
-          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
-          <SeriesId>310913301</SeriesId>
-          <Code>SR4825052</Code>
-          <Order>3</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{807FCE08-CAB8-455F-B7EE-602E481AABE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>